--- a/biology/Médecine/Revue_médicale_suisse/Revue_médicale_suisse.xlsx
+++ b/biology/Médecine/Revue_médicale_suisse/Revue_médicale_suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Revue_m%C3%A9dicale_suisse</t>
+          <t>Revue_médicale_suisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Revue médicale suisse (Rev. med. suisse ou RMS) est une publication spécialisée hebdomadaire d'expression de langue française destinée à la formation continue des praticiens[1].
+La Revue médicale suisse (Rev. med. suisse ou RMS) est une publication spécialisée hebdomadaire d'expression de langue française destinée à la formation continue des praticiens.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Revue_m%C3%A9dicale_suisse</t>
+          <t>Revue_médicale_suisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publiée pour la première fois le 5 janvier 2005[2], la Revue médicale suisse naît de la fusion de la Revue médicale de la Suisse romande et de Médecine &amp; hygiène[3],[4].
-Répertoriée sous l'abréviation « Rev Med Suisse » dans l’Index Medicus, les articles de la Revue médicale suisse sont indexés dans MEDLINE, leurs références sont consultables par PubMed[5]. Son facteur d'impact est encore en cours d'évaluation par ISI Thomson Reuters[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publiée pour la première fois le 5 janvier 2005, la Revue médicale suisse naît de la fusion de la Revue médicale de la Suisse romande et de Médecine &amp; hygiène,.
+Répertoriée sous l'abréviation « Rev Med Suisse » dans l’Index Medicus, les articles de la Revue médicale suisse sont indexés dans MEDLINE, leurs références sont consultables par PubMed. Son facteur d'impact est encore en cours d'évaluation par ISI Thomson Reuters,.
 </t>
         </is>
       </c>
